--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/RHODE_ISLAND_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/RHODE_ISLAND_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C4">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -706,13 +706,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C25">
@@ -777,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C30">
@@ -834,7 +833,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C34">
@@ -860,7 +859,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C36">
@@ -917,7 +916,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C40">
@@ -943,7 +942,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C42">
@@ -982,7 +981,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C45">
@@ -1047,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C50">
@@ -1060,7 +1059,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C51">
@@ -1098,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="D53">
-        <v>0.09740259740259741</v>
+        <v>0.09740259740259739</v>
       </c>
     </row>
     <row r="54">
@@ -1130,7 +1129,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C56">
@@ -1169,7 +1168,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C59">
@@ -1182,7 +1181,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C60">
@@ -1195,7 +1194,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C61">
@@ -1260,7 +1259,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C66">
@@ -1304,7 +1303,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C69">
@@ -1343,7 +1342,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C72">
@@ -1605,7 +1604,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C91">
@@ -1714,7 +1713,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C99">
@@ -1740,7 +1739,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C101">
@@ -1779,7 +1778,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C104">
@@ -1877,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="D111">
-        <v>0.09090909090909091</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="112">
@@ -1888,7 +1887,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C112">
@@ -1901,7 +1900,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C113">
@@ -2121,7 +2120,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C128">
@@ -2256,7 +2255,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C138">
@@ -2269,7 +2268,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C139">
@@ -2451,41 +2450,6 @@
       </c>
       <c r="D152">
         <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/RHODE_ISLAND_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/RHODE_ISLAND_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Omitlán De Juárez</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tepetitlán</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlahuelilpan</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Santiago Lachiguiri</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Santiago Minas</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1815,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -1828,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1841,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -1854,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1867,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2030,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -2043,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -2056,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -2069,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2131,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2162,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -2175,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Chiconamel</t>
@@ -2188,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2201,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -2214,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -2227,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2240,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2253,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2266,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2279,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -2292,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2305,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2318,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2331,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2344,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -2357,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -2370,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2383,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2414,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2427,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
